--- a/content/plataformes/dadesref/entitats/Arees_basiques_salut.xlsx
+++ b/content/plataformes/dadesref/entitats/Arees_basiques_salut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\78.Arees_basiques_salut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4396D-9C4E-46B6-8E3E-86BBCF7559FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F18DE7-B872-4124-A808-DB049D86F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1284" windowWidth="17496" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Àrees bàsiques salut" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>CERDANYOLA-RIPOLLET</t>
   </si>
   <si>
-    <t>BARCELONA 8J</t>
-  </si>
-  <si>
     <t>RIPOLLET-1</t>
   </si>
   <si>
@@ -2340,6 +2337,9 @@
   </si>
   <si>
     <t>PENEDÈS RURAL OEST</t>
+  </si>
+  <si>
+    <t>BARCELONA 8-J</t>
   </si>
 </sst>
 </file>
@@ -2937,12 +2937,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>28</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>29</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>32</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>33</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>37</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>38</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>40</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>41</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>42</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>43</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>44</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>45</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>46</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>47</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>48</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>49</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>50</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>51</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>52</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>53</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>54</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>55</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>56</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>57</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>58</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>59</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>60</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>61</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>62</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>63</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>65</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>66</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>67</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>68</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>69</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>70</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>71</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>72</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>73</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>74</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>75</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>76</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>77</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>78</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>79</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>80</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>81</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>82</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>83</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>84</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>85</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>86</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>87</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>88</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>89</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>90</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>91</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>92</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>93</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>94</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>95</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>96</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>97</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>98</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>99</v>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C95" s="3">
         <v>7164</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>100</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>101</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>102</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>103</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>104</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>105</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>106</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>107</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>108</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>109</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>110</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>111</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>112</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>113</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>114</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>115</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>116</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>117</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>118</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>119</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>120</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>121</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>122</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>123</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>124</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>125</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>126</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>127</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>128</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>129</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>130</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>131</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>132</v>
@@ -4692,10 +4692,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C129" s="3">
         <v>6156</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>133</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C131" s="3">
         <v>6156</v>
@@ -4734,10 +4734,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C132" s="3">
         <v>6156</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>134</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>135</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>136</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>137</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>138</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>139</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>140</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>141</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>142</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>143</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>144</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>145</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>146</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>147</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>148</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>149</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>150</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>151</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>152</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>153</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>154</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>155</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>156</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>157</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>158</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>159</v>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C159" s="3">
         <v>7164</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>160</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>161</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>162</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>163</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>164</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>165</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>166</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>167</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>168</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>169</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>170</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>171</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>172</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>173</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>174</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>175</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>176</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>177</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>178</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>179</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>180</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>181</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>182</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>183</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>184</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>185</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>186</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>187</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>188</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>189</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>190</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>191</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>192</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C193" s="3">
         <v>6360</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>193</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>194</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>195</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>196</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>197</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>198</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>199</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>200</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>201</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>202</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>203</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>204</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>205</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>206</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>207</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>208</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>209</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>210</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>211</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>212</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>213</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>214</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>215</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>216</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>217</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>218</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>219</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>220</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>221</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>222</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>223</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>224</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>225</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>226</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>227</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>228</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>229</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>230</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>231</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>232</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>233</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>234</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>235</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>236</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>237</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>238</v>
@@ -6246,10 +6246,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C240" s="3">
         <v>6360</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C241" s="3">
         <v>6360</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>239</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>240</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>241</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>242</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>243</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>244</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>245</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>246</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>247</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>248</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>249</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>250</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>251</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>252</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>253</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>254</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>255</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>256</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>257</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>258</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>259</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>260</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>261</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>262</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>263</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>264</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>265</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>266</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>267</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>268</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>269</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>270</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>271</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>272</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>273</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>274</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>275</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>276</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>277</v>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>278</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>279</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>280</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>281</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>282</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>283</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>284</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>285</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>286</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>287</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>288</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>289</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>290</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>291</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>292</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>293</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>294</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C298" s="3">
         <v>7844</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>295</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>296</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>297</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>298</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>299</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C304" s="3">
         <v>6156</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>300</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>301</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>302</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>303</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>304</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>305</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>306</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>307</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>308</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>309</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>310</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>311</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>312</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>313</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>314</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>315</v>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>316</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>317</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>318</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>319</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>320</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>321</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>322</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>323</v>
@@ -7492,7 +7492,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>324</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>325</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>326</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>327</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>328</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>329</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>330</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>331</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>332</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>333</v>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>334</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>335</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>336</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>337</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>338</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>339</v>
@@ -7716,10 +7716,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C345" s="3">
         <v>6735</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C346" s="3">
         <v>6735</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>340</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>341</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>342</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>343</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>344</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>345</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>346</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>347</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>348</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>349</v>
@@ -7884,10 +7884,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>350</v>
+        <v>768</v>
       </c>
       <c r="C357" s="3">
         <v>7854</v>
@@ -7898,10 +7898,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C358" s="3">
         <v>7844</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C359" s="3">
         <v>7844</v>
@@ -7926,10 +7926,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C360" s="3">
         <v>7843</v>
@@ -7940,10 +7940,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C361" s="3">
         <v>7843</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C362" s="3">
         <v>7843</v>
@@ -7968,10 +7968,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C363" s="3">
         <v>7842</v>
@@ -7982,10 +7982,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C364" s="3">
         <v>7844</v>
@@ -7996,10 +7996,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C365" s="3">
         <v>7865</v>
@@ -8010,10 +8010,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C366" s="3">
         <v>7865</v>
@@ -8024,10 +8024,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C367" s="3">
         <v>7855</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C368" s="3">
         <v>7855</v>
@@ -8052,10 +8052,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C369" s="3">
         <v>7865</v>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C370" s="3">
         <v>7865</v>
@@ -8080,10 +8080,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C371" s="3">
         <v>7843</v>
@@ -8094,10 +8094,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C372" s="3">
         <v>7849</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C373" s="3">
         <v>7866</v>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C374" s="3">
         <v>7854</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C375" s="3">
         <v>7854</v>
@@ -8150,24 +8150,24 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C377" s="3">
         <v>7865</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C378" s="3">
         <v>7865</v>
@@ -8192,21 +8192,21 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>2</v>
@@ -8215,12 +8215,12 @@
         <v>5</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>3</v>
@@ -8229,7 +8229,7 @@
         <v>6</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8252,9 +8252,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -8268,6 +8279,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8315,6 +8328,36 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8417,16 +8460,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
@@ -8436,24 +8469,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA6D558-96C2-460B-85A7-C80599A94855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -8468,4 +8483,8 @@
     <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09BCD26-3B51-4AEC-9366-07911BB9A4FF}"/>
 </file>